--- a/mod_model1.xlsx
+++ b/mod_model1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgp11/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1F652-559F-9440-8C4D-4BFCE6DAFF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C0D4D1-37C6-E940-A517-9047C355EC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14020" activeTab="1" xr2:uid="{134BF960-159B-9641-A2AE-93133A459BF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" activeTab="3" xr2:uid="{134BF960-159B-9641-A2AE-93133A459BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="298.15" sheetId="1" r:id="rId2"/>
+    <sheet name="318.15" sheetId="3" r:id="rId3"/>
+    <sheet name="333.15" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>x_1</t>
   </si>
@@ -410,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0050C6E-FA96-D046-B460-510A73E7F77A}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +437,7 @@
         <v>1E-3</v>
       </c>
       <c r="C2">
-        <f>1-A2-B2</f>
+        <f t="shared" ref="C2:C33" si="0">1-A2-B2</f>
         <v>0.873</v>
       </c>
     </row>
@@ -447,7 +449,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C3">
-        <f>1-A3-B3</f>
+        <f t="shared" si="0"/>
         <v>0.86099999999999999</v>
       </c>
     </row>
@@ -459,7 +461,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="C4">
-        <f>1-A4-B4</f>
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
     </row>
@@ -471,7 +473,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C5">
-        <f>1-A5-B5</f>
+        <f t="shared" si="0"/>
         <v>0.84799999999999998</v>
       </c>
     </row>
@@ -483,7 +485,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="C6">
-        <f>1-A6-B6</f>
+        <f t="shared" si="0"/>
         <v>0.84099999999999997</v>
       </c>
     </row>
@@ -495,7 +497,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="C7">
-        <f>1-A7-B7</f>
+        <f t="shared" si="0"/>
         <v>0.83499999999999996</v>
       </c>
     </row>
@@ -507,7 +509,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="C8">
-        <f>1-A8-B8</f>
+        <f t="shared" si="0"/>
         <v>0.83099999999999996</v>
       </c>
     </row>
@@ -519,7 +521,7 @@
         <v>0.05</v>
       </c>
       <c r="C9">
-        <f>1-A9-B9</f>
+        <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
     </row>
@@ -531,7 +533,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="C10">
-        <f>1-A10-B10</f>
+        <f t="shared" si="0"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
@@ -543,7 +545,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="C11">
-        <f>1-A11-B11</f>
+        <f t="shared" si="0"/>
         <v>0.82599999999999996</v>
       </c>
     </row>
@@ -556,7 +558,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="C12">
-        <f>1-A12-B12</f>
+        <f t="shared" si="0"/>
         <v>0.82699999999999996</v>
       </c>
     </row>
@@ -565,11 +567,11 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B22" si="0">B12+0.001</f>
+        <f t="shared" ref="B13:B22" si="1">B12+0.001</f>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="C13">
-        <f>1-A13-B13</f>
+        <f t="shared" si="0"/>
         <v>0.82799999999999996</v>
       </c>
     </row>
@@ -578,11 +580,11 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5E-2</v>
       </c>
       <c r="C14">
-        <f>1-A14-B14</f>
+        <f t="shared" si="0"/>
         <v>0.82899999999999996</v>
       </c>
     </row>
@@ -591,11 +593,11 @@
         <v>0.114</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C15">
-        <f>1-A15-B15</f>
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
     </row>
@@ -604,11 +606,11 @@
         <v>0.112</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="C16">
-        <f>1-A16-B16</f>
+        <f t="shared" si="0"/>
         <v>0.83099999999999996</v>
       </c>
     </row>
@@ -617,11 +619,11 @@
         <v>0.11</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="C17">
-        <f>1-A17-B17</f>
+        <f t="shared" si="0"/>
         <v>0.83199999999999996</v>
       </c>
     </row>
@@ -634,7 +636,7 @@
         <v>5.9000000000000004E-2</v>
       </c>
       <c r="C18">
-        <f>1-A18-B18</f>
+        <f t="shared" si="0"/>
         <v>0.83299999999999996</v>
       </c>
     </row>
@@ -643,11 +645,11 @@
         <v>0.106</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="C19">
-        <f>1-A19-B19</f>
+        <f t="shared" si="0"/>
         <v>0.83399999999999996</v>
       </c>
     </row>
@@ -660,7 +662,7 @@
         <v>6.1000000000000006E-2</v>
       </c>
       <c r="C20">
-        <f>1-A20-B20</f>
+        <f t="shared" si="0"/>
         <v>0.83499999999999996</v>
       </c>
     </row>
@@ -669,11 +671,11 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2000000000000006E-2</v>
       </c>
       <c r="C21">
-        <f>1-A21-B21</f>
+        <f t="shared" si="0"/>
         <v>0.83599999999999997</v>
       </c>
     </row>
@@ -682,11 +684,11 @@
         <v>0.1</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3E-2</v>
       </c>
       <c r="C22">
-        <f>1-A22-B22</f>
+        <f t="shared" si="0"/>
         <v>0.83699999999999997</v>
       </c>
     </row>
@@ -699,7 +701,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="C23">
-        <f>1-A23-B23</f>
+        <f t="shared" si="0"/>
         <v>0.83800000000000008</v>
       </c>
     </row>
@@ -711,7 +713,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="C24">
-        <f>1-A24-B24</f>
+        <f t="shared" si="0"/>
         <v>0.83899999999999997</v>
       </c>
     </row>
@@ -723,7 +725,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="C25">
-        <f>1-A25-B25</f>
+        <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
     </row>
@@ -735,7 +737,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C26">
-        <f>1-A26-B26</f>
+        <f t="shared" si="0"/>
         <v>0.84099999999999997</v>
       </c>
     </row>
@@ -747,105 +749,105 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C27">
-        <f>1-A27-B27</f>
+        <f t="shared" si="0"/>
         <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>A27-0.001</f>
+        <f t="shared" ref="A28:A34" si="2">A27-0.001</f>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="B28">
-        <f>B27+0.001</f>
+        <f t="shared" ref="B28:B34" si="3">B27+0.001</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="C28">
-        <f>1-A28-B28</f>
+        <f t="shared" si="0"/>
         <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>A28-0.001</f>
+        <f t="shared" si="2"/>
         <v>8.3999999999999991E-2</v>
       </c>
       <c r="B29">
-        <f>B28+0.001</f>
+        <f t="shared" si="3"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C29">
-        <f>1-A29-B29</f>
+        <f t="shared" si="0"/>
         <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>A29-0.001</f>
+        <f t="shared" si="2"/>
         <v>8.299999999999999E-2</v>
       </c>
       <c r="B30">
-        <f>B29+0.001</f>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C30">
-        <f>1-A30-B30</f>
+        <f t="shared" si="0"/>
         <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>A30-0.001</f>
+        <f t="shared" si="2"/>
         <v>8.199999999999999E-2</v>
       </c>
       <c r="B31">
-        <f>B30+0.001</f>
+        <f t="shared" si="3"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="C31">
-        <f>1-A31-B31</f>
+        <f t="shared" si="0"/>
         <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>A31-0.001</f>
+        <f t="shared" si="2"/>
         <v>8.0999999999999989E-2</v>
       </c>
       <c r="B32">
-        <f>B31+0.001</f>
+        <f t="shared" si="3"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="C32">
-        <f>1-A32-B32</f>
+        <f t="shared" si="0"/>
         <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>A32-0.001</f>
+        <f t="shared" si="2"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="B33">
-        <f>B32+0.001</f>
+        <f t="shared" si="3"/>
         <v>7.8E-2</v>
       </c>
       <c r="C33">
-        <f>1-A33-B33</f>
+        <f t="shared" si="0"/>
         <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>A33-0.001</f>
+        <f t="shared" si="2"/>
         <v>7.8999999999999987E-2</v>
       </c>
       <c r="B34">
-        <f>B33+0.001</f>
+        <f t="shared" si="3"/>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34" si="1">1-A34-B34</f>
+        <f t="shared" ref="C34" si="4">1-A34-B34</f>
         <v>0.84200000000000008</v>
       </c>
     </row>
@@ -1207,4 +1209,1283 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEC95B0-0E08-0649-B095-29EE4ED4A936}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.215</v>
+      </c>
+      <c r="B2">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="C2">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.215</v>
+      </c>
+      <c r="B3">
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.215</v>
+      </c>
+      <c r="B4">
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.215</v>
+      </c>
+      <c r="B5">
+        <v>4.9000000000000044E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.215</v>
+      </c>
+      <c r="B6">
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.215</v>
+      </c>
+      <c r="B7">
+        <v>7.6000000000000068E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.215</v>
+      </c>
+      <c r="B8">
+        <v>8.5000000000000075E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.215</v>
+      </c>
+      <c r="B9">
+        <v>8.8000000000000078E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.214</v>
+      </c>
+      <c r="B10">
+        <v>8.9000000000000079E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="B11">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="B12">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.21</v>
+      </c>
+      <c r="B13">
+        <v>9.1000000000000081E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="B14">
+        <v>9.4999999999999973E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.191</v>
+      </c>
+      <c r="B15">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.185</v>
+      </c>
+      <c r="B16">
+        <v>0.10299999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="B17">
+        <v>0.1070000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.17</v>
+      </c>
+      <c r="B18">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.16</v>
+      </c>
+      <c r="B20">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.155</v>
+      </c>
+      <c r="B21">
+        <v>0.123</v>
+      </c>
+      <c r="C21">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.15</v>
+      </c>
+      <c r="B22">
+        <v>0.127</v>
+      </c>
+      <c r="C22">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="B23">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="B24">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="B25">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B26">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.127</v>
+      </c>
+      <c r="B27">
+        <v>0.15</v>
+      </c>
+      <c r="C27">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.123</v>
+      </c>
+      <c r="B28">
+        <v>0.155</v>
+      </c>
+      <c r="C28">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="B29">
+        <v>0.16</v>
+      </c>
+      <c r="C29">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="B30">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="B31">
+        <v>0.17</v>
+      </c>
+      <c r="C31">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1070000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.10299999999999998</v>
+      </c>
+      <c r="B33">
+        <v>0.185</v>
+      </c>
+      <c r="C33">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="B34">
+        <v>0.191</v>
+      </c>
+      <c r="C34">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9.4999999999999973E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9.1000000000000081E-2</v>
+      </c>
+      <c r="B36">
+        <v>0.21</v>
+      </c>
+      <c r="C36">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="B37">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="B38">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8.9000000000000079E-2</v>
+      </c>
+      <c r="B39">
+        <v>0.214</v>
+      </c>
+      <c r="C39">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8.8000000000000078E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.215</v>
+      </c>
+      <c r="C40">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8.5000000000000075E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.215</v>
+      </c>
+      <c r="C41">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7.6000000000000068E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.215</v>
+      </c>
+      <c r="C42">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="B43">
+        <v>0.215</v>
+      </c>
+      <c r="C43">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4.9000000000000044E-2</v>
+      </c>
+      <c r="B44">
+        <v>0.215</v>
+      </c>
+      <c r="C44">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="B45">
+        <v>0.215</v>
+      </c>
+      <c r="C45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.215</v>
+      </c>
+      <c r="C46">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="B47">
+        <v>0.215</v>
+      </c>
+      <c r="C47">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I24">
+    <sortCondition descending="1" ref="F2:F24"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48041102-7724-C44E-A950-10C36B1B35BB}">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B1">
+        <v>1E-3</v>
+      </c>
+      <c r="C1">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.67799999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.66599999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.65599999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.64599999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.6359999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.62599999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B10">
+        <v>9.799999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.11799999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B13">
+        <v>0.12799999999999997</v>
+      </c>
+      <c r="C13">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.56199999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="B15">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="B16">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="B17">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.56600000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="B18">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.56900000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="B19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.57100000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="B20">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="B21">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="B22">
+        <v>0.153</v>
+      </c>
+      <c r="C22">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="B23">
+        <v>0.157</v>
+      </c>
+      <c r="C23">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.249</v>
+      </c>
+      <c r="B24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.246</v>
+      </c>
+      <c r="B25">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="B26">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="B27">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.59400000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="B28">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.223</v>
+      </c>
+      <c r="B29">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.59600000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.217</v>
+      </c>
+      <c r="B30">
+        <v>0.186</v>
+      </c>
+      <c r="C30">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="B31">
+        <v>0.193</v>
+      </c>
+      <c r="C31">
+        <v>0.59800000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B32">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.59800000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="B33">
+        <v>0.2</v>
+      </c>
+      <c r="C33">
+        <v>0.59800000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.2</v>
+      </c>
+      <c r="B34">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.59800000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="B35">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.59800000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.193</v>
+      </c>
+      <c r="B36">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.59800000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.186</v>
+      </c>
+      <c r="B37">
+        <v>0.217</v>
+      </c>
+      <c r="C37">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="B38">
+        <v>0.223</v>
+      </c>
+      <c r="C38">
+        <v>0.59600000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="B39">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="B40">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.59400000000000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="B41">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="B42">
+        <v>0.246</v>
+      </c>
+      <c r="C42">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="B43">
+        <v>0.249</v>
+      </c>
+      <c r="C43">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.157</v>
+      </c>
+      <c r="B44">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.153</v>
+      </c>
+      <c r="B45">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="B46">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="C46">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C47">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B48">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C48">
+        <v>0.57100000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="B49">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="C49">
+        <v>0.56900000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B50">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.56600000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="B51">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="B52">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="B53">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.56199999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.12799999999999997</v>
+      </c>
+      <c r="B54">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C54">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.11799999999999998</v>
+      </c>
+      <c r="B55">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="B56">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9.799999999999999E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B58">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C58">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7.8E-2</v>
+      </c>
+      <c r="B59">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B60">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C60">
+        <v>0.62599999999999989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.6359999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C62">
+        <v>0.64599999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.65599999999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.66599999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.67799999999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1E-3</v>
+      </c>
+      <c r="B66">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F1:I33">
+    <sortCondition descending="1" ref="F1:F33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mod_model1.xlsx
+++ b/mod_model1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgp11/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C0D4D1-37C6-E940-A517-9047C355EC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7DDDB-5AEB-714E-A1ED-31E5980DE7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" activeTab="3" xr2:uid="{134BF960-159B-9641-A2AE-93133A459BF6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>x_1</t>
   </si>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1748,23 +1748,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48041102-7724-C44E-A950-10C36B1B35BB}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="B1">
-        <v>1E-3</v>
-      </c>
-      <c r="C1">
-        <v>0.69299999999999995</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,10 +1772,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B2">
-        <v>1.6E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="C2">
-        <v>0.67799999999999994</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1783,10 +1783,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B3">
-        <v>2.8000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C3">
-        <v>0.66599999999999993</v>
+        <v>0.67799999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1794,10 +1794,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B4">
-        <v>3.7999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>0.65599999999999992</v>
+        <v>0.66599999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1805,10 +1805,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B5">
-        <v>4.8000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.64599999999999991</v>
+        <v>0.65599999999999992</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1816,10 +1816,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B6">
-        <v>5.8000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>0.6359999999999999</v>
+        <v>0.64599999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,10 +1827,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B7">
-        <v>6.8000000000000005E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>0.62599999999999989</v>
+        <v>0.6359999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1838,10 +1838,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B8">
-        <v>7.8E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C8">
-        <v>0.61599999999999999</v>
+        <v>0.62599999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,10 +1849,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B9">
-        <v>8.7999999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C9">
-        <v>0.60599999999999998</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1860,10 +1860,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B10">
-        <v>9.799999999999999E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C10">
-        <v>0.59599999999999997</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1871,10 +1871,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B11">
-        <v>0.10799999999999998</v>
+        <v>9.799999999999999E-2</v>
       </c>
       <c r="C11">
-        <v>0.58599999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,10 +1882,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B12">
-        <v>0.11799999999999998</v>
+        <v>0.10799999999999998</v>
       </c>
       <c r="C12">
-        <v>0.57599999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,10 +1893,10 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B13">
-        <v>0.12799999999999997</v>
+        <v>0.11799999999999998</v>
       </c>
       <c r="C13">
-        <v>0.56599999999999995</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,205 +1904,205 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="B14">
-        <v>0.13200000000000001</v>
+        <v>0.12799999999999997</v>
       </c>
       <c r="C14">
-        <v>0.56199999999999994</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.30399999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="B15">
-        <v>0.13300000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="C15">
-        <v>0.56299999999999994</v>
+        <v>0.56199999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.30199999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="B16">
-        <v>0.13400000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="C16">
-        <v>0.56399999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0.29899999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="B17">
-        <v>0.13500000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C17">
-        <v>0.56600000000000006</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0.29299999999999998</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="B18">
-        <v>0.13800000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C18">
-        <v>0.56900000000000006</v>
+        <v>0.56600000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.28899999999999998</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="B19">
-        <v>0.14000000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="C19">
-        <v>0.57100000000000006</v>
+        <v>0.56900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.28100000000000003</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="B20">
-        <v>0.14399999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C20">
-        <v>0.57499999999999996</v>
+        <v>0.57100000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0.27100000000000002</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="B21">
-        <v>0.14899999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="C21">
-        <v>0.57999999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0.26400000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="B22">
-        <v>0.153</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="C22">
-        <v>0.58299999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.25700000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="B23">
-        <v>0.157</v>
+        <v>0.153</v>
       </c>
       <c r="C23">
-        <v>0.58599999999999997</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.249</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="B24">
-        <v>0.16200000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="C24">
-        <v>0.58899999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.246</v>
+        <v>0.249</v>
       </c>
       <c r="B25">
-        <v>0.16400000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C25">
-        <v>0.59</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.23599999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="B26">
-        <v>0.17100000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="C26">
-        <v>0.59299999999999997</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.23200000000000001</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="B27">
-        <v>0.17399999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C27">
-        <v>0.59400000000000008</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.22800000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="B28">
-        <v>0.17699999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C28">
-        <v>0.59499999999999997</v>
+        <v>0.59400000000000008</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.223</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="B29">
-        <v>0.18099999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="C29">
-        <v>0.59600000000000009</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.217</v>
+        <v>0.223</v>
       </c>
       <c r="B30">
-        <v>0.186</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C30">
-        <v>0.59699999999999998</v>
+        <v>0.59600000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.20899999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="B31">
-        <v>0.193</v>
+        <v>0.186</v>
       </c>
       <c r="C31">
-        <v>0.59800000000000009</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.20599999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B32">
-        <v>0.19600000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="C32">
         <v>0.59800000000000009</v>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.20200000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="C33">
         <v>0.59800000000000009</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="B34">
         <v>0.2</v>
-      </c>
-      <c r="B34">
-        <v>0.20200000000000001</v>
       </c>
       <c r="C34">
         <v>0.59800000000000009</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.19600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B35">
-        <v>0.20599999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C35">
         <v>0.59800000000000009</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.193</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="B36">
-        <v>0.20899999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="C36">
         <v>0.59800000000000009</v>
@@ -2154,337 +2154,348 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.186</v>
+        <v>0.193</v>
       </c>
       <c r="B37">
-        <v>0.217</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="C37">
-        <v>0.59699999999999998</v>
+        <v>0.59800000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.18099999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="B38">
-        <v>0.223</v>
+        <v>0.217</v>
       </c>
       <c r="C38">
-        <v>0.59600000000000009</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.17699999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="B39">
-        <v>0.22800000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="C39">
-        <v>0.59499999999999997</v>
+        <v>0.59600000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.17399999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="B40">
-        <v>0.23200000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="C40">
-        <v>0.59400000000000008</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0.17100000000000001</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="B41">
-        <v>0.23599999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="C41">
-        <v>0.59299999999999997</v>
+        <v>0.59400000000000008</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.16400000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="B42">
-        <v>0.246</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C42">
-        <v>0.59</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.16200000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="B43">
-        <v>0.249</v>
+        <v>0.246</v>
       </c>
       <c r="C43">
-        <v>0.58899999999999997</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.157</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="B44">
-        <v>0.25700000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="C44">
-        <v>0.58599999999999997</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0.153</v>
+        <v>0.157</v>
       </c>
       <c r="B45">
-        <v>0.26400000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C45">
-        <v>0.58299999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0.14899999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="B46">
-        <v>0.27100000000000002</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C46">
-        <v>0.57999999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0.14399999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="B47">
-        <v>0.28100000000000003</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C47">
-        <v>0.57499999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.14000000000000001</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="B48">
-        <v>0.28899999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="C48">
-        <v>0.57100000000000006</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0.13800000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B49">
-        <v>0.29299999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="C49">
-        <v>0.56900000000000006</v>
+        <v>0.57100000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.13500000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="B50">
-        <v>0.29899999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="C50">
-        <v>0.56600000000000006</v>
+        <v>0.56900000000000006</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.13400000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="B51">
-        <v>0.30199999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="C51">
-        <v>0.56399999999999995</v>
+        <v>0.56600000000000006</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0.13300000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="B52">
-        <v>0.30399999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C52">
-        <v>0.56299999999999994</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0.13200000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="B53">
-        <v>0.30599999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="C53">
-        <v>0.56199999999999994</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0.12799999999999997</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="B54">
         <v>0.30599999999999999</v>
       </c>
       <c r="C54">
-        <v>0.56599999999999995</v>
+        <v>0.56199999999999994</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0.11799999999999998</v>
+        <v>0.12799999999999997</v>
       </c>
       <c r="B55">
         <v>0.30599999999999999</v>
       </c>
       <c r="C55">
-        <v>0.57599999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0.10799999999999998</v>
+        <v>0.11799999999999998</v>
       </c>
       <c r="B56">
         <v>0.30599999999999999</v>
       </c>
       <c r="C56">
-        <v>0.58599999999999997</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>9.799999999999999E-2</v>
+        <v>0.10799999999999998</v>
       </c>
       <c r="B57">
         <v>0.30599999999999999</v>
       </c>
       <c r="C57">
-        <v>0.59599999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>8.7999999999999995E-2</v>
+        <v>9.799999999999999E-2</v>
       </c>
       <c r="B58">
         <v>0.30599999999999999</v>
       </c>
       <c r="C58">
-        <v>0.60599999999999998</v>
+        <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>7.8E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="B59">
         <v>0.30599999999999999</v>
       </c>
       <c r="C59">
-        <v>0.61599999999999999</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>6.8000000000000005E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="B60">
         <v>0.30599999999999999</v>
       </c>
       <c r="C60">
-        <v>0.62599999999999989</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>5.8000000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="B61">
         <v>0.30599999999999999</v>
       </c>
       <c r="C61">
-        <v>0.6359999999999999</v>
+        <v>0.62599999999999989</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>4.8000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="B62">
         <v>0.30599999999999999</v>
       </c>
       <c r="C62">
-        <v>0.64599999999999991</v>
+        <v>0.6359999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3.7999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="B63">
         <v>0.30599999999999999</v>
       </c>
       <c r="C63">
-        <v>0.65599999999999992</v>
+        <v>0.64599999999999991</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2.8000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="B64">
         <v>0.30599999999999999</v>
       </c>
       <c r="C64">
-        <v>0.66599999999999993</v>
+        <v>0.65599999999999992</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.6E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="B65">
         <v>0.30599999999999999</v>
       </c>
       <c r="C65">
-        <v>0.67799999999999994</v>
+        <v>0.66599999999999993</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.67799999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>1E-3</v>
       </c>
-      <c r="B66">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="C66">
+      <c r="B67">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C67">
         <v>0.69299999999999995</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F1:I33">
-    <sortCondition descending="1" ref="F1:F33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I34">
+    <sortCondition descending="1" ref="F2:F34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
